--- a/LuanTuTuc.xlsx
+++ b/LuanTuTuc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9348E7C9-2533-404C-8BC4-B78F88784C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77B55AA-1883-4907-AB3B-84A6B116CF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7622" uniqueCount="3734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7650" uniqueCount="3748">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11227,6 +11227,48 @@
   </si>
   <si>
     <t>Thai Phụ tọa thủ tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Quan Phù, Phúc Đức đồng cung tại Tử Tức, Ân Quang, Tấu Thư đồng cung tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Đào Hoa, Hồng Loan, Văn Xương, Văn Khúc đồng cung tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Thiên Phủ, Đào Hoa Tử Vi đồng cung tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Thiên Tướng, Phục Binh đồng cung tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Bạch Hổ, Thất Sát, Kình Dương đồng cung tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Bạch Hổ, Tang Môn, Địa Kiếp đồng cung tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Bạch Hổ, Tang Môn đồng cung tại Tử Tức, Địa Kiếp, Địa Không đồng cung tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Thiên Khốc, Thiên Hư đồng cung tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tả Phù, Hữu Bật đồng cung tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Thiên Lương, Thiên Khốc, Thái Tuế đồng cung tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Kình Dương, Đà La, Địa Không, Địa Kiếp đồng cung tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Thất Sát, Thiên Hình, Bạch Hổ đồng cung tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Hỏa Tinh, Thái Âm đồng cung tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Thái Tuế, Thái Âm, Thiên Đồng toạ thủ cung Tử Tức tại Tý</t>
   </si>
 </sst>
 </file>
@@ -11765,10 +11807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3812"/>
+  <dimension ref="A1:B3827"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1640" workbookViewId="0">
-      <selection activeCell="Q1647" sqref="Q1647"/>
+    <sheetView tabSelected="1" topLeftCell="A3797" workbookViewId="0">
+      <selection activeCell="B3827" sqref="B3827"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42262,6 +42304,118 @@
       </c>
       <c r="B3812" t="s">
         <v>3612</v>
+      </c>
+    </row>
+    <row r="3814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3814" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B3814" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3815" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B3815" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3816" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B3816" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3817" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B3817" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3818" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B3818" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3819" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B3819" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3820" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B3820" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3821" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B3821" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3822" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B3822" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3823" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B3823" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3824" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B3824" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3825" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B3825" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3826" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B3826" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3827" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B3827" t="s">
+        <v>3747</v>
       </c>
     </row>
   </sheetData>

--- a/LuanTuTuc.xlsx
+++ b/LuanTuTuc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77B55AA-1883-4907-AB3B-84A6B116CF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE6D0A1-AFCD-4E07-8744-02FED5BF8EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7650" uniqueCount="3748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7704" uniqueCount="3775">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11269,6 +11269,87 @@
   </si>
   <si>
     <t>Thái Tuế, Thái Âm, Thiên Đồng toạ thủ cung Tử Tức tại Tý</t>
+  </si>
+  <si>
+    <t>Song Hao Quyền Lộc Kiếp Hoả</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Xương Khúc Khôi Việt Tả Hữu Khoa Quyền Lộc Long</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Tả Hữu Khoa Quyền Lộc Long Phượng</t>
+  </si>
+  <si>
+    <t>Tử Khúc Phá Dương Đà</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương gặp Xương Khúc Tả Hữu</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Quý Quan Phúc</t>
+  </si>
+  <si>
+    <t>Sát Quyền</t>
+  </si>
+  <si>
+    <t>Lộc Mã</t>
+  </si>
+  <si>
+    <t>Kiếp Hư Hao Quyền</t>
+  </si>
+  <si>
+    <t>Tuế Hổ Phù Xương Khúc</t>
+  </si>
+  <si>
+    <t>Xương Khúc Tấu Long Phượng</t>
+  </si>
+  <si>
+    <t>Đào Hồng Riêu Tấu Cơ Vũ</t>
+  </si>
+  <si>
+    <t>Binh Hình Tướng Ấn</t>
+  </si>
+  <si>
+    <t>Hổ Tấu</t>
+  </si>
+  <si>
+    <t>Hình Riêu Y</t>
+  </si>
+  <si>
+    <t>Mã Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Thai Tọa Hồng Đào</t>
+  </si>
+  <si>
+    <t>Tả Hữu Không Kiếp</t>
+  </si>
+  <si>
+    <t>Tả Hữu Binh Tướng</t>
+  </si>
+  <si>
+    <t>Đào Quyền</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Cái Hữu</t>
+  </si>
+  <si>
+    <t>Quan Phúc Quang Tấu</t>
+  </si>
+  <si>
+    <t>Đào Hồng Xương Khúc</t>
+  </si>
+  <si>
+    <t>Đào Tử Phủ</t>
+  </si>
+  <si>
+    <t>Hổ Kình Sát</t>
+  </si>
+  <si>
+    <t>Hổ Tang Kiếp</t>
+  </si>
+  <si>
+    <t>Hổ Tang Không Kiếp</t>
   </si>
 </sst>
 </file>
@@ -11310,7 +11391,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11807,10 +11898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3827"/>
+  <dimension ref="A1:B3855"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3797" workbookViewId="0">
-      <selection activeCell="B3827" sqref="B3827"/>
+    <sheetView tabSelected="1" topLeftCell="A3806" workbookViewId="0">
+      <selection activeCell="A3829" sqref="A3829:B3855"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42418,55 +42509,274 @@
         <v>3747</v>
       </c>
     </row>
+    <row r="3829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3829" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B3829" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3830" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B3830" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3831" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B3831" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3832" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B3832" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3833" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B3833" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3834" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B3834" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3835" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B3835" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3836" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B3836" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3837" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B3837" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3838" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B3838" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3839" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B3839" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3840" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B3840" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3841" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B3841" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3842" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B3842" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3843" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B3843" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3844" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B3844" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3845" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B3845" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3846" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B3846" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="3847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3847" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B3847" t="s">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3848" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B3848" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3849" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B3849" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3850" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B3850" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3851" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B3851" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3852" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B3852" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3853" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B3853" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3854" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B3854" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3855" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B3855" t="s">
+        <v>3774</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="21" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="17" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="15" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="79"/>
+  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3828 A3856:A1048576">
+    <cfRule type="duplicateValues" dxfId="15" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1805:B1809 B3442:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+  <conditionalFormatting sqref="B1805:B1809 B3442:B3828 B3856:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3829:A3855">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanTuTuc.xlsx
+++ b/LuanTuTuc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE6D0A1-AFCD-4E07-8744-02FED5BF8EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECBE193-6971-40FC-B7BD-C79F9EA4AAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7704" uniqueCount="3775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7774" uniqueCount="3810">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11350,6 +11350,111 @@
   </si>
   <si>
     <t>Hổ Tang Không Kiếp</t>
+  </si>
+  <si>
+    <t>Âm Dương Lương</t>
+  </si>
+  <si>
+    <t>Cơ Lương Gia Hội</t>
+  </si>
+  <si>
+    <t>Nhật Chiếu Lôi Môn</t>
+  </si>
+  <si>
+    <t>Tả Hữu Xương Khúc</t>
+  </si>
+  <si>
+    <t>Tham Linh Triều Viên</t>
+  </si>
+  <si>
+    <t>Cự Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Hồng Đào Kỵ</t>
+  </si>
+  <si>
+    <t>Cự Đồng Hình</t>
+  </si>
+  <si>
+    <t>Lương Phá</t>
+  </si>
+  <si>
+    <t>Khôi Việt</t>
+  </si>
+  <si>
+    <t>Tham Vũ Hỏa</t>
+  </si>
+  <si>
+    <t>Cự Kỵ</t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa</t>
+  </si>
+  <si>
+    <t>Kình Đà Không Kiếp</t>
+  </si>
+  <si>
+    <t>Đào Hồng Hỷ</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kỵ</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>Lưu Hà Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Phục Không Kiếp</t>
+  </si>
+  <si>
+    <t>Xương Khúc Khôi Việt</t>
+  </si>
+  <si>
+    <t>Khoa Quyền</t>
+  </si>
+  <si>
+    <t>Lộc Quyền</t>
+  </si>
+  <si>
+    <t>Tướng Binh Đào Hồng</t>
+  </si>
+  <si>
+    <t>Lương Khốc Tuế</t>
+  </si>
+  <si>
+    <t>Tướng Binh</t>
+  </si>
+  <si>
+    <t>Cự Tang</t>
+  </si>
+  <si>
+    <t>Cự Hỏa</t>
+  </si>
+  <si>
+    <t>Phá Hình Kỵ</t>
+  </si>
+  <si>
+    <t>Tang Trực Tuế</t>
+  </si>
+  <si>
+    <t>Tuế Xương Khúc</t>
+  </si>
+  <si>
+    <t>Tử Vi Tả Hữu</t>
+  </si>
+  <si>
+    <t>Tử Vi Tang Tả Hữu</t>
   </si>
 </sst>
 </file>
@@ -11391,7 +11496,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11898,10 +12013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3855"/>
+  <dimension ref="A1:B3890"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3806" workbookViewId="0">
-      <selection activeCell="A3829" sqref="A3829:B3855"/>
+    <sheetView tabSelected="1" topLeftCell="A3815" workbookViewId="0">
+      <selection activeCell="G3829" sqref="G3829"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42725,57 +42840,337 @@
         <v>3774</v>
       </c>
     </row>
+    <row r="3856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3856" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B3856" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3857" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B3857" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3858" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B3858" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="3859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3859" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B3859" t="s">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3860" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B3860" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3861" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B3861" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3862" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B3862" t="s">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3863" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B3863" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3864" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B3864" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3865" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B3865" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3866" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B3866" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3867" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B3867" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3868" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B3868" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3869" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B3869" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3870" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B3870" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3871" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B3871" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3872" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B3872" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3873" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B3873" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3874" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B3874" t="s">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3875" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B3875" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="3876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3876" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B3876" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="3877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3877" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B3877" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="3878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3878" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3878" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="3879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3879" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B3879" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="3880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3880" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B3880" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="3881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3881" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B3881" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="3882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3882" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B3882" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="3883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3883" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B3883" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="3884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3884" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B3884" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="3885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3885" t="s">
+        <v>3804</v>
+      </c>
+      <c r="B3885" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="3886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3886" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B3886" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="3887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3887" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B3887" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="3888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3888" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B3888" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="3889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3889" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B3889" t="s">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="3890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3890" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B3890" t="s">
+        <v>3809</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="22" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="18" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="16" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3828 A3856:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="80"/>
+  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3828 A3891:A1048576">
+    <cfRule type="duplicateValues" dxfId="16" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1805:B1809 B3442:B3828 B3856:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
+  <conditionalFormatting sqref="B1805:B1809 B3442:B3828 B3891:B1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3829:A3855">
+  <conditionalFormatting sqref="A3829:A3890">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuanTuTuc.xlsx
+++ b/LuanTuTuc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0CBB5D-0FF2-42DB-9D9A-F485EA404254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD10AED-CEA1-428B-8FE1-D213C9313819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8444" uniqueCount="4222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8602" uniqueCount="4301">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -12691,6 +12691,243 @@
   </si>
   <si>
     <t>L. Đà La tọa thủ tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Sát Phá Tham hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Cự Nhật hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Kình Đà hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Xương Khúc hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Hoả Linh hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Không Kiếp hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Quang Quý hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tả Hữu hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Song Hao hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tang Hổ hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Khốc Hư hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Hình Riêu hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Thai Toạ hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Đào Hồng hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Ấn Phù hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Song Hao Quyền Lộc Kiếp Hoả hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Xương Khúc Khôi Việt Tả Hữu Khoa Quyền Lộc Long hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Tả Hữu Khoa Quyền Lộc Long Phượng hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tử Khúc Phá Dương Đà hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương gặp Xương Khúc Tả Hữu hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Quý Quan Phúc hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Sát Quyền hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Lộc Mã hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Kiếp Hư Hao Quyền hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tuế Hổ Phù Xương Khúc hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Xương Khúc Tấu Long Phượng hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Riêu Tấu Cơ Vũ hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Binh Hình Tướng Ấn hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Hổ Tấu hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Hình Riêu Y hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Mã Hỏa Linh hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Thai Tọa Hồng Đào hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tả Hữu Không Kiếp hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tả Hữu Binh Tướng hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Đào Quyền hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Cái Hữu hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Quan Phúc Quang Tấu hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Xương Khúc hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Đào Tử Phủ hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Hổ Kình Sát hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Hổ Tang Kiếp hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Hổ Tang Không Kiếp hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Âm Dương Lương hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Cơ Lương Gia Hội hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Nhật Chiếu Lôi Môn hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tả Hữu Xương Khúc hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tham Linh Triều Viên hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Cự Hỏa Linh hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Hồng Đào Kỵ hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Cự Đồng Hình hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Lương Phá hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Khôi Việt hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tham Vũ Hỏa hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Cự Kỵ hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Kình Đà Không Kiếp hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Hỷ hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kiếp Sát hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kỵ hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc Long Trì Phượng Các hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Lưu Hà Kiếp Sát hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Phục Không Kiếp hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Xương Khúc Khôi Việt hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Khoa Quyền hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Lộc Quyền hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tướng Binh Đào Hồng hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Lương Khốc Tuế hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tướng Binh hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Cự Tang hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Cự Hỏa hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Phá Hình Kỵ hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tang Trực Tuế hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tuế Xương Khúc hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tử Vi Tả Hữu hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tử Vi Tang Tả Hữu hội chiếu tại Tử Tức</t>
   </si>
 </sst>
 </file>
@@ -12732,117 +12969,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13339,10 +13466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4223"/>
+  <dimension ref="A1:B4303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4163" workbookViewId="0">
-      <selection activeCell="B4163" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4205" workbookViewId="0">
+      <selection activeCell="B4225" sqref="B4225:B4303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47123,32 +47250,664 @@
         <v>4221</v>
       </c>
     </row>
+    <row r="4225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4225" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B4225" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="4226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4226" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B4226" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="4227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4227" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B4227" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4228" t="s">
+        <v>4225</v>
+      </c>
+      <c r="B4228" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="4229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4229" t="s">
+        <v>4226</v>
+      </c>
+      <c r="B4229" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="4230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4230" t="s">
+        <v>4227</v>
+      </c>
+      <c r="B4230" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="4231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4231" t="s">
+        <v>4228</v>
+      </c>
+      <c r="B4231" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="4232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4232" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B4232" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="4233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4233" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B4233" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="4234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4234" t="s">
+        <v>4231</v>
+      </c>
+      <c r="B4234" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="4235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4235" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B4235" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="4236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4236" t="s">
+        <v>4233</v>
+      </c>
+      <c r="B4236" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="4237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4237" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B4237" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="4238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4238" t="s">
+        <v>4235</v>
+      </c>
+      <c r="B4238" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="4239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4239" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B4239" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="4240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4240" t="s">
+        <v>4237</v>
+      </c>
+      <c r="B4240" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="4241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4241" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B4241" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="4242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4242" t="s">
+        <v>4239</v>
+      </c>
+      <c r="B4242" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="4243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4243" t="s">
+        <v>4240</v>
+      </c>
+      <c r="B4243" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="4244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4244" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B4244" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4245" t="s">
+        <v>4242</v>
+      </c>
+      <c r="B4245" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4246" t="s">
+        <v>4243</v>
+      </c>
+      <c r="B4246" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4247" t="s">
+        <v>4244</v>
+      </c>
+      <c r="B4247" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4248" t="s">
+        <v>4245</v>
+      </c>
+      <c r="B4248" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4249" t="s">
+        <v>4246</v>
+      </c>
+      <c r="B4249" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4250" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B4250" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4251" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B4251" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4252" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B4252" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4253" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B4253" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4254" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B4254" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4255" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B4255" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4256" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B4256" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4257" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B4257" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4258" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B4258" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4259" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B4259" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4260" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B4260" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4261" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B4261" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4262" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B4262" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4263" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B4263" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4264" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B4264" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4265" t="s">
+        <v>4262</v>
+      </c>
+      <c r="B4265" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4266" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B4266" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4267" t="s">
+        <v>4264</v>
+      </c>
+      <c r="B4267" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4268" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B4268" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4269" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B4269" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4270" t="s">
+        <v>4267</v>
+      </c>
+      <c r="B4270" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4271" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B4271" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4272" t="s">
+        <v>4269</v>
+      </c>
+      <c r="B4272" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4273" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B4273" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4274" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B4274" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4275" t="s">
+        <v>4272</v>
+      </c>
+      <c r="B4275" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4276" t="s">
+        <v>4273</v>
+      </c>
+      <c r="B4276" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4277" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B4277" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4278" t="s">
+        <v>4275</v>
+      </c>
+      <c r="B4278" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4279" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B4279" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4280" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B4280" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4281" t="s">
+        <v>4278</v>
+      </c>
+      <c r="B4281" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4282" t="s">
+        <v>4279</v>
+      </c>
+      <c r="B4282" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4283" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B4283" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4284" t="s">
+        <v>4281</v>
+      </c>
+      <c r="B4284" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4285" t="s">
+        <v>4282</v>
+      </c>
+      <c r="B4285" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4286" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B4286" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4287" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B4287" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4288" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B4288" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4289" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B4289" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4290" t="s">
+        <v>4287</v>
+      </c>
+      <c r="B4290" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4291" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B4291" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4292" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B4292" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4293" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B4293" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4294" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B4294" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4295" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B4295" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4296" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B4296" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4297" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B4297" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4298" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B4298" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4299" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B4299" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4300" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B4300" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4301" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B4301" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4302" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B4302" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4303" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B4303" t="s">
+        <v>4300</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="32" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="30" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="28" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="26" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3828 A3891:A4190 A6736:A1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="23" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3829:A3890">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
     <cfRule type="duplicateValues" dxfId="10" priority="8"/>

--- a/LuanTuTuc.xlsx
+++ b/LuanTuTuc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD10AED-CEA1-428B-8FE1-D213C9313819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17A4D21-3DD1-435A-8872-7A9E4A88F4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8602" uniqueCount="4301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8812" uniqueCount="4406">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -12928,6 +12928,321 @@
   </si>
   <si>
     <t>Tử Vi Tang Tả Hữu hội chiếu tại Tử Tức</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Cơ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thái Dương tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Vũ Khúc tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Đồng tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Liêm Trinh tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Phủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thái Âm tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Tham Lang tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Cự Môn tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Tướng tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Lương tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thất Sát tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Phá Quân tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Dương tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Vũ Khúc tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Đồng tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Liêm Trinh tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Phủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Âm tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Tham Lang tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Cự Môn tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Tướng tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Lương tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thất Sát tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Phá Quân tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Vũ Khúc tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Đồng tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Liêm Trinh tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Phủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thái Âm tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Tham Lang tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Cự Môn tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Tướng tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Lương tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thất Sát tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Phá Quân tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Đồng tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Liêm Trinh tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Phủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thái Âm tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Tham Lang tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Cự Môn tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Tướng tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Lương tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thất Sát tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Phá Quân tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Liêm Trinh tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Phủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thái Âm tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Tham Lang tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Cự Môn tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Tướng tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Lương tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thất Sát tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Phá Quân tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Phủ tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thái Âm tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Tham Lang tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Cự Môn tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Tướng tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Lương tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thất Sát tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Phá Quân tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thái Âm tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Tham Lang tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Cự Môn tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thiên Tướng tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thiên Lương tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thất Sát tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Phá Quân tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Tham Lang tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Cự Môn tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thiên Tướng tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thiên Lương tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thất Sát tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Phá Quân tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Cự Môn tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thiên Tướng tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thiên Lương tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thất Sát tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Phá Quân tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thiên Tướng tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thiên Lương tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thất Sát tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Phá Quân tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Thiên Lương tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Thất Sát tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Phá Quân tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Thất Sát tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Phá Quân tại cung đối Điền Trạch</t>
+  </si>
+  <si>
+    <t>Thất Sát đồng cung Phá Quân tại cung đối Điền Trạch</t>
   </si>
 </sst>
 </file>
@@ -13466,10 +13781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4303"/>
+  <dimension ref="A1:B4409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4205" workbookViewId="0">
-      <selection activeCell="B4225" sqref="B4225:B4303"/>
+    <sheetView tabSelected="1" topLeftCell="A4289" workbookViewId="0">
+      <selection activeCell="B4319" sqref="B4319:B4409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47880,6 +48195,846 @@
       </c>
       <c r="B4303" t="s">
         <v>4300</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4305" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B4305" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4306" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B4306" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4307" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B4307" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4308" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B4308" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4309" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B4309" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4310" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B4310" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4311" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B4311" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="4312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4312" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B4312" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4313" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B4313" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4314" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B4314" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4315" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B4315" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4316" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B4316" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4317" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B4317" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4318" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B4318" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4319" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B4319" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4320" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B4320" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4321" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B4321" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4322" t="s">
+        <v>4318</v>
+      </c>
+      <c r="B4322" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4323" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B4323" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4324" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B4324" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4325" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B4325" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4326" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B4326" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4327" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B4327" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4328" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B4328" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4329" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B4329" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4330" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B4330" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4331" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B4331" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4332" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B4332" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4333" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B4333" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4334" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B4334" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4335" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B4335" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4336" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B4336" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4337" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B4337" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4338" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B4338" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4339" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B4339" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4340" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B4340" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4341" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B4341" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4342" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B4342" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4343" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B4343" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4344" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B4344" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4345" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B4345" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4346" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B4346" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4347" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B4347" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4348" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B4348" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4349" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B4349" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4350" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B4350" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4351" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B4351" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4352" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B4352" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4353" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B4353" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4354" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B4354" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4355" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B4355" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4356" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B4356" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4357" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B4357" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4358" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B4358" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4359" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B4359" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4360" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B4360" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4361" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B4361" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4362" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B4362" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4363" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B4363" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4364" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B4364" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4365" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B4365" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4366" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B4366" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4367" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B4367" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4368" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B4368" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4369" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B4369" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4370" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B4370" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4371" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B4371" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4372" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B4372" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4373" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4374" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B4374" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4375" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B4375" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4376" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B4376" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4377" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B4377" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4378" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B4378" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4379" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B4379" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4380" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B4380" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4381" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B4381" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4382" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B4382" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4383" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4384" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4385" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4386" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B4386" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4387" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B4387" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4388" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B4388" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4389" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B4389" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4390" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B4390" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4391" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B4391" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4392" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B4392" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4393" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B4393" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4394" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B4394" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4395" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B4395" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4396" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B4396" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4397" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B4397" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4398" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B4398" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="4399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4399" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B4399" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="4400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4400" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B4400" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4401" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B4401" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="4402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4402" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B4402" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="4403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4403" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B4403" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4404" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B4404" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="4405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4405" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B4405" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="4406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4406" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B4406" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="4407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4407" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B4407" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="4408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4408" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B4408" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="4409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4409" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B4409" t="s">
+        <v>4405</v>
       </c>
     </row>
   </sheetData>

--- a/LuanTuTuc.xlsx
+++ b/LuanTuTuc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501CDC6F-FC0C-48FD-AFCB-C0C0B35D120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC16C18-C9B6-4364-92CF-5BDFBAF212E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -14400,8 +14400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A1:C4546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4226" workbookViewId="0">
-      <selection activeCell="C4248" sqref="C4248"/>
+    <sheetView tabSelected="1" topLeftCell="A4503" workbookViewId="0">
+      <selection activeCell="D4512" sqref="D4512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LuanTuTuc.xlsx
+++ b/LuanTuTuc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E52738-8914-4448-B512-D3254D40367C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A16968-A640-4DC0-8971-5DC487849D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7008" uniqueCount="3610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7080" uniqueCount="3669">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -10867,6 +10867,183 @@
   </si>
   <si>
     <t>Cản trở đường con cái, làm giảm bớt số lượng. Con cái bướng bỉnh, ngang tàng, không nghe lời bố mẹ, hay làm điều ngược lại.</t>
+  </si>
+  <si>
+    <t>Vũ khúc là sao mang nhiều đặc tính khác nhau. Có phần năng động như Thái Dương, phần suy nghĩ như Thiên Đồng, phần mưu tính như Thiên Cơ, phần thụ động như Thái Âm; tuy vậy nói chung vẫn ngã về phía tĩnh, có tinh thần trách nhiệm, nhưng cầu mong sự an ổn. Thiên Tướng cũng mang đặc tính thụ động, muốn giảm thiểu mọi sự đổi thay. Hai sao hợp lại gây ra khuynh hướng bảo thủ, thiếu tính sáng tạo, không phát triển cái mới mà chỉ giữ những gì có sẵn. Người có Vũ Tướng cùng cung không phải lo vật lộn với miếng cơm manh áo, nhưng vì tâm lý thụ động, lại thiếu những vận may lớn nên rất khó trở thành đại phú.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Nhiều khả năng, chịu học hỏi, không quản lao khổ, lời nói đi đôi với việc làm, ra công hết sức.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tính ương nhạnh, hành sự nôn nóng, không chịu nghe lời khuyên bảo, nhiều bệnh tật, ít gặp may mắn. Thiếu khả năng sáng tạo, đời sống thường khổ tâm vì hay so sánh với người khác mà sinh bất đắc chí.</t>
+  </si>
+  <si>
+    <t>Thái Dương là "trung thiên đế vương tinh" uy cường, Thiên Lương là phúc tinh ôn nhã, hai sao cùng cung tất phải tương nhượng nhau mà hướng về trung đạo.</t>
+  </si>
+  <si>
+    <t>Hai vị trí cùng cung là Mão Dậu, thuộc "tứ chính đào hoa địa". Mão là đất vượng của Thái Dương, nên Thái Dương lấn áp Thiên Lương; Dậu là phương hãm của Thái Dương, nên ảnh hưởng của Thiên Lương có phần trội vượt. Vì đặc tính đào hoa, ở cả hai nơi cá nhân sẽ có nhiều duyên may mắn. Nếu chọn ngành thương mãi thì dễ đạt mục tiêu vật chất. Nhưng trong mọi trường hợp, e là khó tìm được hạnh phúc gia đình.</t>
+  </si>
+  <si>
+    <t>Cá nhân sẽ có nhiều điểm cố chấp nhưng lại có trái tim dễ bị xúc dộng nên khả năng quyết định không chuyên nhất, thành bại vì thế khó lường.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Quang minh chính dại, tích cực, hiền hòa, thích phục vụ xã hội, không sợ mệt nhọc, hiểm nguy, thất bại. Có phong thái quí phái, làm việc cẩn trọng suy tính. Biết trọng người trên, nhường kẻ dưới.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tâm lý do dự, khả năng phán đoán thiếu sót, không biết mình biết người, nên dễ lao tâm vô ích. Không biết lẽ tiến thủ nên hay kẹt vào những hoàn cảnh, nhất là hoàn cảnh tình cảm, không thể tìm đường giải quyết.</t>
+  </si>
+  <si>
+    <t>Là cách cục đại cát, phú quý lâu dài</t>
+  </si>
+  <si>
+    <t>Chỉ cùng cung tại Dần Thân, thuộc "tứ mã địa", đại biểu của khuynh hướng chuyển biến, nên mặc dù có tính bảo thủ đời sống lại có nhiều thay đổi.</t>
+  </si>
+  <si>
+    <t>Thiên Đồng vốn thụ động, an phận thủ thường; trong khi đó Thiên Lương mang nhiều ước vọng cao vời, cá nhân vì vậy có tâm lý rất phức tạp, nhiều khi đổi thay chỉ vì cá tính, nhiều khi đổi thay vì muốn thăng tiến sự nghiệp. Nói chung, những đổi thay thường có đắn đo kèm theo, nên thiếu sự bình tĩnh vốn là đặc tính của cả hai sao khi đứng riêng rẽ. Nhưng số may mắn, đổi thay đa số dẫn đến kết quả tốt, vô hình chung khiến con người trở thành kinh nghiệm, lịch duyệt.</t>
+  </si>
+  <si>
+    <t>Đây là loại người dấu kín nội tâm. Bề ngoài mềm mỏng, ít gây thù oán.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Có lòng tốt, thích giúp đỡ kẻ khác, thị phi phân minh. Biết chỗ đứng của mình, ít giữ thù hận trong lòng. Không tranh chấp. Đối xử hòa đồng với mọi người. Chịu khó học hỏi. Cá tính kiên nhẫn. Có duyên gặp gỡ và hòa hợp với nhiều loại người, già cũng như trẻ.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Lòng tự tôn quá caọ Tâm tư bất định. Ước muốn không rõ ràng. Thường hành sự cô độc. Cho dù có ý muốn hợp tác với người khác, thì khi vào việc vẫn có khuynh hướng chạy làng. Có nhiều duyên với người khác phái, nhưng vì vậy mà tình cảm thường gặp phức tạp. Trong khi đó tâm giao, tri kỷ thì lại hiếm hoi.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh còn là sao Tù Tinh, có tính chất ăn chơi phóng khoáng, liều lĩnh, nóng nảy, bốc đồng, khó kiểm soát bản thân, Tham Lang là sao Dâm Tinh, bướng bỉnh, ham vui ham chơi, bất cần. Vậy nên khi hai sao này đi cùng nhau rất dễ vì tình ái và sự liều lĩnh mà dễ dính dáng đến pháp luật, tính khí thất thường, sáng nắng chiều mưa</t>
+  </si>
+  <si>
+    <t>Bạn xử sự có mạch lạc, lớp lang, ngăn nắp, thứ tự, có thể dựa vào đó để định phương kế và kế hoạch làm việc, cho nên thích hợp làm công chức, hoặc đảm nhiệm chức vụ trong công ty. Xã hội hiện đại xem trọng việc quản lý công ty, rất thích hợp với Bạn có mệnh cách này.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ thuộc Mộc biểu tượng mưu trí, tính toán, nhẫn nại; Thái Âm thuộc thủy biểu tượng cung cách nho nhã, tình cảm lãng mạn. Luận về ngũ hành thì hai sao tương hợp. Nhưng Dần Thân thuộc "tứ mã địa" chủ sự dời đổi, biến chuyển; nên có thể thấy từ đặc tính của hai sao rằng đây không phải là vị trí thích hợp lắm.</t>
+  </si>
+  <si>
+    <t>Ở Dần Thái Âm hãm, ở Thân Thái Âm vượng, nên có Cơ Âm đồng cung ở Thân thì gặp nhiều may mắn hơn ở Dần; nhưng cả hai cung vẫn có chung một số tính chất. Cá nhân có "Cơ Nguyệt tương phùng cách" nội tâm ít khi thỏa mãn với hoàn cảnh hiện tại, hay thay đổi bất chợt, nhưng lại e sợ hậu quả, nên mọi đổi thay đều ở mức lưng chừng, thiếu dứt khoát, nên dễ khốn khổ vì lâm vào những hoàn cảnh khúc mắc, khó giải quyết.</t>
+  </si>
+  <si>
+    <t>Người có Cơ Nguyệt ở Dần Thân thiếu uy nghiêm nên không hợp với vai trò lãnh đạo. Nên tìm những công việc chuyên môn, hoặc buôn bán độc lập. Nếu không lượng sức mình mà đi vào những địa hạt cần quyền biến mau lẹ thì khó lòng tránh khỏi thất bại.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Cốt cách, phong tư nho nhã, dễ chiếm cảm tình của người khác (đặc biệt là người khác phái). Thông minh, hiểu chuyện mau lẹ. Có trực giác linh mẫn. Có cơ may gặp nhiều duyên lạ trong tình cảm cũng như sự nghiệp.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu nghị lực, ý chí, khả năng điều hànhg. Nhiều mơ mộng, thiếu thực tế. Trọng hư danh. Nội tâm nhiều mâu thuẫn, và (trừ khi có nhiều sao chế hóa) khá ích kỷ. Tình cảm biến đổi, trước trọng sau khinh. Khó được người đời kính trọng.</t>
+  </si>
+  <si>
+    <t>Bạn là Bạn yếu thế,nhìn đời bằng ánh mắt tiêu cực hay muốn thoát tục đi tu. Hoặc chỉ có thoát tục đi tu thì bạn mới có thể an yên, bớt vất vả.</t>
+  </si>
+  <si>
+    <t>Tử Vi vốn đã có khí phái phong lưu, Tham Lang lại là sao của lòng tham vật dục, nên trường hợp thông thường là đời sống buông thả. Nhưng chú ý! Vì khuynh hướng của hai sao quá tương phản nên liên tục khắc chế nhau, mà tùy hoàn cảnh kết cuộc có thể hoàn toàn trái ngược.</t>
+  </si>
+  <si>
+    <t>Đó là lý do tại sao Tử Tham  Dậu cũng là cách của nhiều bậc chân tu, coi thường mọi thú vui của đời sống.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Đa tài đa nghệ, học hỏi rất nhanh, kiến thức phong phú, ngôn ngữ có phong cách nho nhã, thân thiết với nhiều người, xử sự khéo léọ Nếu sống đời buông thả thì đáng gọi là tay chơi. Nếu sống đời ẩn dật lại đáng gọi là bậc chân tu.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu tính nhẫn nại, thiếu khả năng chịu đựng thất bại, nhiều chủ kiến, (thường) tham lam hưởng thụ, dễ đổi thay ý kiến, quan điểm. Sống vô kỷ luật, qui củ, gây ra những hoàn cảnh phức tạp tự mình không giải quyết nổi, thường vì tình mà khổ lụy, đời sống thành bại khó lường.</t>
+  </si>
+  <si>
+    <t>Thái Dương là trung đẩu đế tinh, nên mặc dù thuộc nhóm sao tĩnh (Cơ Nguyệt Đồng Lương Cự Nhật ) mà vẫn có nhiều tính chất xung động, mãnh liệt như nhóm "Tử Phủ Sát Phá Tham ". Ngược lại, Thái Âm là sao nhu nhuyễn, thích sự bình lặng, làm việc gì cũng muốn đạt sự toàn mỹ, mang nhiều lãng mạn tính. Hai sao hợp lại, không khỏi có nhiều mâu thuẫn.</t>
+  </si>
+  <si>
+    <t>Sửu Mùi là hai cung mộ địa mang đặc tính bảo thủ, nên khuynh hướng đấu tranh của Thái Dương bị biến hóa, trở thành bất chợt, nhưng cá nhân vẫn hiếu thắng, cố chấp.</t>
+  </si>
+  <si>
+    <t>Thái Dương nhiều năng lực, hăng hái xông pha, trong khi Thái Âm thích sự nhàn tản, lãng mạn. Hai sao hợp lại thường có bề ngoài mềm dẻo bề trong cứng cỏi, nhưng có lúc hoàn toàn ngược lại, rất khó xác định. Thích ở vị trí thủ lãnh, nhưng rất khó đóng trọn vai trò này là vì những mâu thuẫn như đã kể.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Không tham danh lợi, thích làm việc nghĩa, thích đóng vai người hùng cứu khổn phò nguy, đầu óc thông minh, học hỏi hiểu biết nhanh.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Nhiều mâu thuẫn, nhiều khi suy nghĩ trước sau trái ngược, ý chí không cứng cỏi, tình cảm bất định. Luôn cho rằng mình hơn người khác, dễ trở thành bệnh tưởng. Hôn nhân thiếu hòa thuận, không gần gủi người thân.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ trí tụê mẫn cảm, nho nhã thư sinh, dễ gây cảm tình; Cự Môn thành kiến chủ quan, cố chấp, dễ khiến người khác khó chịu. Hai sao cùng cung chế hóa nhau, kết quả là cá tính vẫn chủ quan, nhưng biết xử thế, được người yêu nhiều hơn ghét.</t>
+  </si>
+  <si>
+    <t>Mão Dậu là đào hoa địa, nên cá nhân có khuynh hướng liên quan nhiều với xã hội, có khả năng biến lạ thành quen, sinh hoạt hăng hái, xử sự nhậm lẹ. Mặc dù thỉnh thoảng ngôn ngữ bất cẩn làm kẻ khác phiền lòng, nhưng nói chung được nhiều sự yêu mến.</t>
+  </si>
+  <si>
+    <t>Chỉ tiếc là thiếu sự nhẫn nại, nên mặc dù bỏ nhiều năng lực và sáng kiến, ít khi được kết quả tương xứng, có tiếng mà không có miếng, ngay cả khi thành công cũng thường là dọn cỗ cho người còn mình chẳng được hưởng bao nhiêu.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Quyết định nhanh chóng, trí tuệ mẫn cảm, biết chịu đựng khó khăn, làm việc tận lực, biết lẽ tiến thối, liên tục học hỏi, quân bình tình cảm và lý trí. Nếu theo các nghề doanh thương, buôn bán thì rất dễ thành công lớn, vì có sự ứng hợp với cách "Cự Cơ Mão Dậu".</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Cá tính bướng bỉnh, sinh cường hiếu thắng, dễ mắc vào vòng thị phi, đời sống tình cảm không được ổn định.</t>
+  </si>
+  <si>
+    <t>Cả hai sao đều thuộc Thủỵ Chỉ cùng cung tại Tý Ngọ, thuộc "đào hao địa". Cá nhân ôn nhu, u mặc, đa tình. Ước vọng cao, nhiều cơ hội đi lại, nhiều nhân duyên kỳ diệu, lịch duyệt phong phú. Thiên đồng chủ phúc, Thái Âm chủ điền trạch, nên bất luận vượng hãm nhất định không sợ thiếu ăn thiếu mặc. Từ nhỏ đã được yêu quí. Tóm lại phúc phận tốt. Nhưng nếu ở Ngọ không bằng Tý vì Ngọ là chốn hãm của Thái Âm, nên ảnh hưởng lây Thiên Đồng, phần may mắn không thể bằng cung Tý được.</t>
+  </si>
+  <si>
+    <t>Về mặt xử thế, không hay cạnh tranh với người, nên có nhiều người thương, ít kẻ ghét.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Thông minh hiếu học, đa tài đa nghệ. Phong thái mềm dẻo, không tranh dành hơn thua với người. Có ý muốn phục vụ, được thân nhân bằng hữu ưa thích. Dễ đạt hạnh phúc.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu uy, quá dễ tin người, nhận xét sự kiện hay sai lầm. Thiếu khả năng quyết định, hay ỷ lại kẻ khác. Trốn tránh sự thật đau lòng, mơ mộng quá nhiều. Không chịu nổi hoàn cảnh khó khăn. Hay dính líu đến những hoàn cảnh tình cảm rắc rối.</t>
+  </si>
+  <si>
+    <t>Lúc thiếu thời, công danh trắc trở, tài lộc tụ tán thất thường, nhưng từ ngoài ba mươi tuổi trở đi, chắc chắn là được hưởng phú qúy song toàn và càng già lại càng giàu có.</t>
+  </si>
+  <si>
+    <t>Mùi cùng là âm Thổ mộ cung, thiếu niên chỉ tích tụ kinh nghiệm mà khó phát huy khả năng. Từ trung niên trở đi, nhờ kiến thức có sẵn, cộng thêm may mắn mới tạo thành sự nghiệp, vì thế mới có câu "Vũ Tham bất phát thiếu niên nhân "</t>
+  </si>
+  <si>
+    <t>Vũ khúc chủ sự uy nghiêm, Tham Lang chủ sự buông thả. Hợp nhất là nghề buôn bán, nghệ sĩ trình diễn v.v...Nhất định không hợp với các nghề như thầy giáo, bác sĩ, nhà văn v.v...</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Biết sống hòa với người, nhiều khả năng, biết thu nhận kinh nghiệm trải qua trong đời sống, dám bỏ cũ theo mới, không ngại gian lao khốn khó, dám làm dám chịu.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tâm tính cô độc, xem mình quá cao nên hay bất mãn, đời sống không qui củ, tình cảm thay đổi luôn luôn, thiếu tính nhẫn nại, thích tranh cường háo thắng, không chịu dưới tay kẻ khác. Dù có đạt mọi điều kiện mong muốn, vẫn vì ham muốn nhiều thú vui mà không tìm được bình an.</t>
+  </si>
+  <si>
+    <t>Thái Dương là biểu hiệu của ánh sáng, Cự Môn là ám tinh như mây che ánh sáng, đứng cùng với Thái Dương có tác dụng cản ngăn những đặc sắc của Thái Dương.</t>
+  </si>
+  <si>
+    <t>Hai sao cùng cung ở Dần Thân. Xét về thời gian thì Dần trời chưa sáng, Thân trời đã ngã về chiều, Thái Dương không đủ sức mạnh vượt thắng ảnh hưởng của Cự Môn, nên hai sao cùng cung gây ra tình trạng bất toàn. Nếu thành đạt tất phải có chuyện không ổn trong gia đình, như vợ chồng bất hòa, hoặc sức khỏe suy yếu, hoặc con cái bất hiếu v.v.. Cá nhân vẫn có thể đạt công danh, hạnh phúc, nhưng không có đủ khả năng và may mắn để đối phó với những khó khăn, nên công danh hạnh phúc bao năm đạt được chỉ cần gặp một vài chuyện không may nho nhỏ là có thể vỡ tan bất cứ lúc nào.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Tính khí cương cường, dũng cảm. Có tài miệng lưỡi, mưu trí, nhờ đó có khi biến họa thành may, biết nắm thời cơ. Có khả năng lãnh đạo.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Khá bướng bỉnh, háo thắng. Suy tính chuyện ngoài tầm tay. Tham vọng lớn, lại quá chủ quan, nên khó đạt thành công theo ý muốn.</t>
+  </si>
+  <si>
+    <t>Chỉ đồng cung tại Thìn Tuất, là đất miếu vượng của hai sao. Nên do ảnh hưởng tốt của Thiên Cơ mà có đầu óc mưu cơ, do ảnh hưởng tốt của Thiên Lương mà có sự quan tâm đến bối cảnh xung quanh, muốn phục vụ, làm lợi cho kẻ khác. Vì Thìn Tuất là "thiên la địa võng", lại là mộ địa, nên đời sống có nguyên tắc. Nếu hoàn cảnh thuận lợi, có thể là cộng sự viên đắc lực cho lãnh tụ, tài ba hoặc trở thành bậc hiền nhân danh sĩ.</t>
+  </si>
+  <si>
+    <t>Nói chung gặp nhiều may mắn, dễ đạt thành công về vật chất cũng như tình cảm. Nhưng tham vọng rất cao nên ngay cả khi thành công cũng khó bằng lòng với hoàn cảnh của mình.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Tốt bụng, thông minh, chịu học hỏi, xử thế hòa nhã với mọi ngườị Có thủy có chung, có khả năng đảm nhận trọng trách (miễn là không đòi hỏi ứng biến nhậm lẹ ).</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tham vọng quá cao, nên dễ trở thành trí xảo. Nhiều tình cảm nên hay dính líu vào những hoàn cảnh phức tạp, khó tháo gỡ. Nếu gặp quá nhiều cảnh ngoài ý muốn, rất có thể trở thành người vô cùng giả dối.</t>
+  </si>
+  <si>
+    <t>Làm mạnh thêm sắc thái thị phi khẩu thiệt, nhưng đồng thời cũng làm mạnh thêm tính chất phục vụ công chúng, vì thế rất nên theo các ngành dịch vụ, công tác xã hội,giáo dục, truyền bá, có thể thành nhân vật lãnh đạo</t>
+  </si>
+  <si>
+    <t>Hai sao chỉ cùng cung tại Sửu Mùi, là mộ địa, biểu tượng sự bảo thủ, lại cùng tĩnh diệu, chủ sự bình hòa, không mang tham vọng lớn. Cá tính thiếu chuyên nhất, nên khó phát huy khả năng, thường chỉ đạt mức trung bình về mọi mặt.</t>
+  </si>
+  <si>
+    <t>Sửu Mùi là vị trí hãm của cả hai sao. Thiên đồng hãm gây ra khuynh hướng thay đổi đường lối không đúng lúc; Cự Môn hãm gây ra khuynh hướng hay lo nghĩ vẩn vơ. Cá nhân có hai mặt: Bên ngoài là sự xung động, bên trong là sự cô độc không tìm được người chia sẻ.</t>
+  </si>
+  <si>
+    <t>Cách xử sự không được phân minh, rất dễ khiến người khác hiểu lầm. Hay nhất là yên phận thủ thường thì đời sống có thể ổn cố bình an.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Hầu hết đều có tâm lý bằng lòng với thực tại, ít tham lam, không tranh dành với kẻ khác. Đối xử dung hòa với mọi người.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Nhiều mơ ước ấu trĩ. Thiếu tự tin, không dám biểu lộ quan điểm riêng của mình. Cách suy nghĩ cũng như hành động đều bất định. Lý trí yếu, không đủ kềm hãm con tim; dễ bị thua thiệt trong tình cảm. Thiếu khả năng lãnh đạo, điều hợp. Không thể đảm nhận việc quan trọng.</t>
   </si>
 </sst>
 </file>
@@ -10902,16 +11079,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11458,10 +11648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:C3503"/>
+  <dimension ref="A1:G3517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3083" workbookViewId="0">
-      <selection activeCell="A2684" sqref="A2684"/>
+    <sheetView tabSelected="1" topLeftCell="A3516" workbookViewId="0">
+      <selection activeCell="B3516" sqref="B3516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18846,7 +19036,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="923" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A923" s="1" t="s">
         <v>1037</v>
       </c>
@@ -39380,7 +39570,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="3489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3489" s="1" t="s">
         <v>3503</v>
       </c>
@@ -39388,7 +39578,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="3490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3490" s="1" t="s">
         <v>3505</v>
       </c>
@@ -39396,7 +39586,7 @@
         <v>3506</v>
       </c>
     </row>
-    <row r="3491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3491" s="1" t="s">
         <v>3507</v>
       </c>
@@ -39404,7 +39594,7 @@
         <v>3506</v>
       </c>
     </row>
-    <row r="3492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3492" s="1" t="s">
         <v>3508</v>
       </c>
@@ -39412,7 +39602,7 @@
         <v>3509</v>
       </c>
     </row>
-    <row r="3493" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3493" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3493" s="1" t="s">
         <v>3513</v>
       </c>
@@ -39420,7 +39610,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="3494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3494" s="1" t="s">
         <v>3515</v>
       </c>
@@ -39428,7 +39618,7 @@
         <v>3514</v>
       </c>
     </row>
-    <row r="3495" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3495" s="1" t="s">
         <v>3518</v>
       </c>
@@ -39436,7 +39626,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="3496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3496" s="1" t="s">
         <v>3519</v>
       </c>
@@ -39444,7 +39634,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="3497" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3497" s="1" t="s">
         <v>3520</v>
       </c>
@@ -39452,7 +39642,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="3498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3498" s="1" t="s">
         <v>3521</v>
       </c>
@@ -39460,7 +39650,7 @@
         <v>3522</v>
       </c>
     </row>
-    <row r="3499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3499" s="1" t="s">
         <v>3523</v>
       </c>
@@ -39468,7 +39658,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="3500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3500" s="1" t="s">
         <v>3526</v>
       </c>
@@ -39476,7 +39666,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="3501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3501" s="1" t="s">
         <v>3527</v>
       </c>
@@ -39484,7 +39674,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="3502" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3502" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3502" s="1" t="s">
         <v>2670</v>
       </c>
@@ -39492,79 +39682,341 @@
         <v>3531</v>
       </c>
     </row>
-    <row r="3503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3503" s="1" t="s">
         <v>3533</v>
       </c>
       <c r="B3503" s="1" t="s">
         <v>3534</v>
       </c>
+    </row>
+    <row r="3504" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3504" s="1" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B3504" s="1" t="s">
+        <v>3610</v>
+      </c>
+      <c r="C3504" s="1" t="s">
+        <v>3611</v>
+      </c>
+      <c r="D3504" s="1" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E3504" s="1"/>
+      <c r="F3504" s="2"/>
+    </row>
+    <row r="3505" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3505" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B3505" s="1" t="s">
+        <v>3613</v>
+      </c>
+      <c r="C3505" s="1" t="s">
+        <v>3614</v>
+      </c>
+      <c r="D3505" s="1" t="s">
+        <v>3615</v>
+      </c>
+      <c r="E3505" s="1" t="s">
+        <v>3616</v>
+      </c>
+      <c r="F3505" s="1" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3506" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B3506" s="1" t="s">
+        <v>3618</v>
+      </c>
+      <c r="C3506" s="1" t="s">
+        <v>3619</v>
+      </c>
+      <c r="D3506" s="1" t="s">
+        <v>3620</v>
+      </c>
+      <c r="E3506" s="1" t="s">
+        <v>3621</v>
+      </c>
+      <c r="F3506" s="1" t="s">
+        <v>3622</v>
+      </c>
+      <c r="G3506" s="1" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3507" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B3507" s="1" t="s">
+        <v>3624</v>
+      </c>
+      <c r="C3507" s="1"/>
+      <c r="D3507" s="1"/>
+      <c r="E3507" s="1"/>
+      <c r="F3507" s="2"/>
+    </row>
+    <row r="3508" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3508" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B3508" s="1" t="s">
+        <v>3625</v>
+      </c>
+      <c r="C3508" s="1" t="s">
+        <v>3626</v>
+      </c>
+      <c r="D3508" s="1" t="s">
+        <v>3627</v>
+      </c>
+      <c r="E3508" s="1" t="s">
+        <v>3628</v>
+      </c>
+      <c r="F3508" s="1" t="s">
+        <v>3629</v>
+      </c>
+      <c r="G3508" s="1" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3509" s="1" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B3509" s="1" t="s">
+        <v>3631</v>
+      </c>
+      <c r="C3509" s="1" t="s">
+        <v>3632</v>
+      </c>
+      <c r="D3509" s="1" t="s">
+        <v>3633</v>
+      </c>
+      <c r="E3509" s="1" t="s">
+        <v>3634</v>
+      </c>
+      <c r="F3509" s="1" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3510" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B3510" s="1" t="s">
+        <v>3636</v>
+      </c>
+      <c r="C3510" s="1" t="s">
+        <v>3637</v>
+      </c>
+      <c r="D3510" s="1" t="s">
+        <v>3638</v>
+      </c>
+      <c r="E3510" s="1" t="s">
+        <v>3639</v>
+      </c>
+      <c r="F3510" s="1" t="s">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3511" s="1" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B3511" s="1" t="s">
+        <v>3641</v>
+      </c>
+      <c r="C3511" s="1" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D3511" s="1" t="s">
+        <v>3643</v>
+      </c>
+      <c r="E3511" s="1" t="s">
+        <v>3644</v>
+      </c>
+      <c r="F3511" s="1" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3512" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B3512" s="1" t="s">
+        <v>3646</v>
+      </c>
+      <c r="C3512" s="1" t="s">
+        <v>3647</v>
+      </c>
+      <c r="D3512" s="1" t="s">
+        <v>3648</v>
+      </c>
+      <c r="E3512" s="1" t="s">
+        <v>3649</v>
+      </c>
+      <c r="F3512" s="1"/>
+    </row>
+    <row r="3513" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3513" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B3513" s="1" t="s">
+        <v>3650</v>
+      </c>
+      <c r="C3513" s="1" t="s">
+        <v>3651</v>
+      </c>
+      <c r="D3513" s="1" t="s">
+        <v>3652</v>
+      </c>
+      <c r="E3513" s="1" t="s">
+        <v>3653</v>
+      </c>
+      <c r="F3513" s="1" t="s">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+      <c r="A3514" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B3514" s="1" t="s">
+        <v>3655</v>
+      </c>
+      <c r="C3514" s="1" t="s">
+        <v>3656</v>
+      </c>
+      <c r="D3514" s="1" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E3514" s="1" t="s">
+        <v>3658</v>
+      </c>
+      <c r="F3514" s="1"/>
+      <c r="G3514" s="1"/>
+    </row>
+    <row r="3515" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3515" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B3515" s="1" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C3515" s="1" t="s">
+        <v>3660</v>
+      </c>
+      <c r="D3515" s="1" t="s">
+        <v>3661</v>
+      </c>
+      <c r="E3515" s="1" t="s">
+        <v>3662</v>
+      </c>
+      <c r="F3515" s="1"/>
+      <c r="G3515" s="1"/>
+    </row>
+    <row r="3516" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3516" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B3516" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="C3516" s="1" t="s">
+        <v>3664</v>
+      </c>
+      <c r="D3516" s="1" t="s">
+        <v>3665</v>
+      </c>
+      <c r="E3516" s="1" t="s">
+        <v>3666</v>
+      </c>
+      <c r="F3516" s="1" t="s">
+        <v>3667</v>
+      </c>
+      <c r="G3516" s="1" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3517" s="1"/>
+      <c r="D3517" s="1"/>
+      <c r="E3517" s="1"/>
+      <c r="F3517" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C3503" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="26" priority="97"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="24" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="22" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="20" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1792:A2657">
+    <cfRule type="duplicateValues" dxfId="20" priority="1713"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2768:A2829">
-    <cfRule type="duplicateValues" dxfId="19" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3358 A3359:B3489 A3490 A3491:B3503 A1:B3357 A3518:B1048576">
+    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5664:A1048576 A1787:A1791 A209:A1614 A1:A23 A25:A84 A143 A2663:A2767 A2830:A3129">
-    <cfRule type="duplicateValues" dxfId="18" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3358 A3359:B3489 A3490 A3491:B1048576 A1:B3357">
-    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="109"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1792:B2657">
+    <cfRule type="duplicateValues" dxfId="8" priority="1714"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2768:B2829">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3149">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3358">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3490">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5664:B1048576 B1787:B1791 B209:B1614 B1:B23 B25:B84 B143 B2663:B2767 B2830:B3129">
-    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3149">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1792:A2657">
-    <cfRule type="duplicateValues" dxfId="1" priority="1712"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1792:B2657">
-    <cfRule type="duplicateValues" dxfId="0" priority="1713"/>
+  <conditionalFormatting sqref="A3504:B3517">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
